--- a/support_files/answers_full_by_sections.xlsx
+++ b/support_files/answers_full_by_sections.xlsx
@@ -1,37 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\estaciolima\pdf_reader\support_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBC2443-5BD3-4B60-A2F1-F0CD22BA7CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>How do I use my smartphone to unlock the car?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To use your smartphone for car keyless entry or unlocking, you'll need a compatible device with the necessary functionality. This is often provided through apps developed by the car manufacturer or third-party companies offering similar services. Here are the general steps:
+1. Download and install the app on your phone from the Apple App Store (iOS) or Google Play Store (Android).
+2. Follow the setup instructions in the app, which may include pairing your phone with your car using Bluetooth, Near Field Communication (NFC), or other connection methods.
+3. Once paired, you should be able to use your smartphone to lock and unlock your car remotely through the app. Some apps also offer additional features such as remote start, trunk opening, and vehicle tracking.
+Always make sure that your car is equipped with the necessary hardware for this feature and consult your car's user manual or manufacturer's website for specific instructions on how to set up and use your smartphone for keyless entry. Keep in mind that there may be certain limitations and precautions when using this service, such as ensuring a strong Bluetooth or NFC connection, battery life of the phone, and potential security concerns.</t>
+  </si>
+  <si>
+    <t>How do I use my phone to open the car?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To unlock your vehicle using your smartphone, you would typically need a compatible app and a Remote Start/Security system that supports this feature. However, please note that some aftermarket Remote Start systems may not be compatible with the Sentry Key Immobilizer system. If your vehicle is equipped with Keyless Entry, you can use the Passive Entry door handle to unlock the car with a valid key fob available in the same exterior zone (as mentioned on page 26 of your user manual). To confirm if your vehicle supports phone-based keyless entry, check the features listed in your vehicle's User Manual or consult with an authorized dealer.</t>
+  </si>
+  <si>
+    <t>I want to enter my car using my phone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To control your car's camera system using your phone, you would typically need a compatible mobile app that connects with your car's infotainment system (if equipped). However, the operation of such features depends on the specific model and brand of your vehicle. Here are some general steps for reference:
+1. Download and install the official mobile app from your car manufacturer's website or app store. Ensure that your phone meets the required system requirements.
+2. Connect your phone to your car via Bluetooth or USB cable (depending on your vehicle's capabilities). The process may vary, so refer to your car's user manual for guidance.
+3. Open the mobile app and follow the on-screen instructions to connect with your car. You may be asked to enter a PIN code or perform certain actions on both your phone and car system to establish the connection.
+4. Once connected, you should be able to access various features of your car's infotainment system, such as controlling the Surround View Camera or activating the Forward Facing Camera if equipped. The specific controls may vary depending on your car model and mobile app interface, so familiarize yourself with the app to make use of its functions.
+5. Keep in mind that while using these features through your phone, it is essential to maintain attention to the road and adhere to safe driving practices at all times. The camera system is intended as an aid, not a replacement for manual observation and careful driving.</t>
+  </si>
+  <si>
+    <t>How do I disarm the vehicle security system?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To disarm the vehicle security system, follow these steps:
+1. Make sure you have the remote control for your Ram vehicle. If you don't have it, check with your dealer to get a new one if necessary.
+2. Press any button on the remote control to wake it up. The small LED light should start flashing.
+3. Within 5 seconds of waking up the remote, press and hold the unlock button. You should hear a series of beeps from the vehicle indicating that the security system is disarmed.
+4. If your Ram has an alarm, it will chirp briefly to let you know that the alarm system is now deactivated.
+5. You can now open the doors and start the vehicle as usual.
+Note: If your Ram doesn't have a remote control or the remote control isn't working properly, you may need to use the manual key to unlock the door. The process for this will be detailed in your vehicle's Owner's Manual. Always refer to the Owner's Manual for specific information about your vehicle model and year.</t>
+  </si>
+  <si>
+    <t>What does the manual say about turning on the engine with or without a key?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The manual advises to turn off the ignition before jump starting. After successfully jumpstarting, it's mentioned that you should start the engine in the vehicle that has the booster battery, let it idle for a few minutes, and then start the engine in the vehicle with the discharged battery. However, no specific instructions about turning on the key are given in the provided text.</t>
+  </si>
+  <si>
+    <t>Can you explain how to configure and use the memory seat settings?</t>
+  </si>
+  <si>
+    <t>1. To set a memory position for the driver's seat, first adjust the seat to your preferred position by moving the seat back and forth, reclining or tilting the seatback, and raising or lowering the seat cushion.
+2. Once you have adjusted the seat to your desired position, press and hold the Memory Seat button (usually located on the door panel) until the memory seat indicator blinks. This indicates that the current position is being saved in memory. The number 1 should be blinking to indicate that it is saving the first memory position.
+3. To save additional memory positions, repeat the process while holding the Memory Seat button (the memory indicator will blink a different number each time). You can save up to three different memory seat positions.
+4. To recall a memory position, simply press and hold the Memory Seat button with the corresponding number you want to recall (for example, press and hold the 1 if you want to recall memory position 1). The seat will automatically move to the saved position.
+5. If you have adjusted any other seat-related settings such as power lumbar support or power steering column adjustment, these can also be saved with your memory seat positions by following similar procedures for those specific controls.
+6. To delete a memory seat position, press and hold the Memory Seat button while the memory indicator is blinking for that position. The memory position will then be deleted.
+7. If the vehicle has a power passenger seat, it can also be set to a memory position in a similar manner by using the Passenger Seat Memory button (usually located on the door panel or center console). The process and number of memory positions may vary depending on the model of your vehicle.
+8. Always make sure to check that the seat is adjusted properly before driving, especially if you have passengers or cargo in the vehicle as their presence can affect seat movement. Also, remember to always pay attention to the road and avoid distractions while adjusting the seat positions.</t>
+  </si>
+  <si>
+    <t>How do I save and recall seat positions in this vehicle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This manual does not provide information on how to save and recall seat positions. You may need to refer to a separate manual or contact your vehicle manufacturer for specific instructions regarding seat memory functions.</t>
+  </si>
+  <si>
+    <t>What are the instructions in the manual for setting up memory seats?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The manual does not provide specific instructions for setting up memory seats. However, it mentions that for vehicles equipped with Driver Memory Settings, you can use your key fob or the memory switch on the driver’s door trim panel to return the adjustable pedals to saved positions (see page 29). It is implied that the seat memory settings might be linked to the pedal memory settings. For more detailed instructions on setting up memory seats, refer to page 29 of the vehicle's manual.</t>
+  </si>
+  <si>
+    <t>Who is Michael Jackson?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Jackson was an American singer, songwriter, and dancer. He was one of the most popular entertainers in the world, often referred to as the "King of Pop". He achieved a Guinness World Record for being the most successful entertainer of all time by number of No. 1 singles, selling millions of records worldwide. His career began in the Jackson 5 in the early 1960s, and he launched a highly successful solo career in the late 1970s with the album Off the Wall. He is best known for hit songs like "Billie Jean", "Thriller", and "Beat It". Unfortunately, he passed away in 2009. His influence on music and dance continues to be felt today.</t>
+  </si>
+  <si>
+    <t>Who can I adjust my steering wheel column?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The provided information does not include any settings related to adjusting the steering wheel column. It appears that this specific system primarily focuses on audio, software, and accessibility settings for a vehicle's entertainment system. You should consult your vehicle's user manual or contact the vehicle manufacturer directly to find out how to adjust your steering wheel column.</t>
+  </si>
+  <si>
+    <t>Who can I adjust my steering column?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You should adjust your steering column through the controls located on your vehicle's steering wheel or, if available, within the Uconnect system (page 203). If you encounter difficulty adjusting it yourself, consider consulting with a professional mechanic or contacting your vehicle manufacturer for assistance.</t>
+  </si>
+  <si>
+    <t>Can you give me an overview of the features in this vehicle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This vehicle has several key features and indicator lights as follows:
+1. Headlights On Indicator Light - Illuminates when parking lights or headlights are turned on.
+2. Turn Signal Indicator Lights - Flashes when left or right turn signal is activated, and the exterior turn signals will flash accordingly.
+3. Cruise Control SET Indicator Light (Premium Instrument Cluster Display) - Illuminates when the cruise control is set.
+4. Stop/Start Active Indicator Light (if equipped) - Illuminates when the Stop/Start function is in "Autostop" mode.
+5. 4WD AUTO Indicator Light (if equipped) - Alerts the driver that the vehicle is in four-wheel drive auto mode, and the front axle is engaged but power is sent to the rear wheels.
+6. Adaptive Cruise Control (ACC) Ready Indicator Light (if equipped) - Illuminates when the vehicle equipped with ACC has been turned on but not set.
+7. Cruise Control Ready Indicator Light - Illuminates when the cruise control is ready, but not set.
+8. Selec-Speed Control (SSC) Indicator Light (if equipped) - Shows when the SSC feature is turned on and armed.
+9. High Beam Indicator Light - Illuminates to indicate that the high beam headlights are on.
+In addition, this vehicle has a Speedometer which indicates vehicle speed, a Fuel Gauge showing the level of fuel in the fuel tank, a Tachometer indicating engine speed in revolutions per minute (RPM x 1000), and an Instrument Cluster Display with driver interactive features. The hard telltales will illuminate for a bulb check when the ignition is first cycled. It's important to note that driving with a hot engine cooling system could damage the vehicle, so if the temperature gauge reads “H,” pull over and stop the vehicle, idle it with the air conditioner turned off until the pointer drops back into the normal range, and call an authorized dealer for service if the pointer remains on the "H."</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +167,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +497,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="130.21875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>query</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>How do I use my smartphone to unlock the car?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To use your smartphone for car keyless entry or unlocking, you'll need a compatible device with the necessary functionality. This is often provided through apps developed by the car manufacturer or third-party companies offering similar services. Here are the general steps:
-1. Download and install the app on your phone from the Apple App Store (iOS) or Google Play Store (Android).
-2. Follow the setup instructions in the app, which may include pairing your phone with your car using Bluetooth, Near Field Communication (NFC), or other connection methods.
-3. Once paired, you should be able to use your smartphone to lock and unlock your car remotely through the app. Some apps also offer additional features such as remote start, trunk opening, and vehicle tracking.
-Always make sure that your car is equipped with the necessary hardware for this feature and consult your car's user manual or manufacturer's website for specific instructions on how to set up and use your smartphone for keyless entry. Keep in mind that there may be certain limitations and precautions when using this service, such as ensuring a strong Bluetooth or NFC connection, battery life of the phone, and potential security concerns.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>How do I use my phone to open the car?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To unlock your vehicle using your smartphone, you would typically need a compatible app and a Remote Start/Security system that supports this feature. However, please note that some aftermarket Remote Start systems may not be compatible with the Sentry Key Immobilizer system. If your vehicle is equipped with Keyless Entry, you can use the Passive Entry door handle to unlock the car with a valid key fob available in the same exterior zone (as mentioned on page 26 of your user manual). To confirm if your vehicle supports phone-based keyless entry, check the features listed in your vehicle's User Manual or consult with an authorized dealer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>I want to enter my car using my phone.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To control your car's camera system using your phone, you would typically need a compatible mobile app that connects with your car's infotainment system (if equipped). However, the operation of such features depends on the specific model and brand of your vehicle. Here are some general steps for reference:
-1. Download and install the official mobile app from your car manufacturer's website or app store. Ensure that your phone meets the required system requirements.
-2. Connect your phone to your car via Bluetooth or USB cable (depending on your vehicle's capabilities). The process may vary, so refer to your car's user manual for guidance.
-3. Open the mobile app and follow the on-screen instructions to connect with your car. You may be asked to enter a PIN code or perform certain actions on both your phone and car system to establish the connection.
-4. Once connected, you should be able to access various features of your car's infotainment system, such as controlling the Surround View Camera or activating the Forward Facing Camera if equipped. The specific controls may vary depending on your car model and mobile app interface, so familiarize yourself with the app to make use of its functions.
-5. Keep in mind that while using these features through your phone, it is essential to maintain attention to the road and adhere to safe driving practices at all times. The camera system is intended as an aid, not a replacement for manual observation and careful driving.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>How do I disarm the vehicle security system?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To disarm the vehicle security system, follow these steps:
-1. Make sure you have the remote control for your Ram vehicle. If you don't have it, check with your dealer to get a new one if necessary.
-2. Press any button on the remote control to wake it up. The small LED light should start flashing.
-3. Within 5 seconds of waking up the remote, press and hold the unlock button. You should hear a series of beeps from the vehicle indicating that the security system is disarmed.
-4. If your Ram has an alarm, it will chirp briefly to let you know that the alarm system is now deactivated.
-5. You can now open the doors and start the vehicle as usual.
-Note: If your Ram doesn't have a remote control or the remote control isn't working properly, you may need to use the manual key to unlock the door. The process for this will be detailed in your vehicle's Owner's Manual. Always refer to the Owner's Manual for specific information about your vehicle model and year.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>What does the manual say about turning on the engine with or without a key?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The manual advises to turn off the ignition before jump starting. After successfully jumpstarting, it's mentioned that you should start the engine in the vehicle that has the booster battery, let it idle for a few minutes, and then start the engine in the vehicle with the discharged battery. However, no specific instructions about turning on the key are given in the provided text.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Can you explain how to configure and use the memory seat settings?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1. To set a memory position for the driver's seat, first adjust the seat to your preferred position by moving the seat back and forth, reclining or tilting the seatback, and raising or lowering the seat cushion.
-2. Once you have adjusted the seat to your desired position, press and hold the Memory Seat button (usually located on the door panel) until the memory seat indicator blinks. This indicates that the current position is being saved in memory. The number 1 should be blinking to indicate that it is saving the first memory position.
-3. To save additional memory positions, repeat the process while holding the Memory Seat button (the memory indicator will blink a different number each time). You can save up to three different memory seat positions.
-4. To recall a memory position, simply press and hold the Memory Seat button with the corresponding number you want to recall (for example, press and hold the 1 if you want to recall memory position 1). The seat will automatically move to the saved position.
-5. If you have adjusted any other seat-related settings such as power lumbar support or power steering column adjustment, these can also be saved with your memory seat positions by following similar procedures for those specific controls.
-6. To delete a memory seat position, press and hold the Memory Seat button while the memory indicator is blinking for that position. The memory position will then be deleted.
-7. If the vehicle has a power passenger seat, it can also be set to a memory position in a similar manner by using the Passenger Seat Memory button (usually located on the door panel or center console). The process and number of memory positions may vary depending on the model of your vehicle.
-8. Always make sure to check that the seat is adjusted properly before driving, especially if you have passengers or cargo in the vehicle as their presence can affect seat movement. Also, remember to always pay attention to the road and avoid distractions while adjusting the seat positions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>How do I save and recall seat positions in this vehicle?</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> This manual does not provide information on how to save and recall seat positions. You may need to refer to a separate manual or contact your vehicle manufacturer for specific instructions regarding seat memory functions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>What are the instructions in the manual for setting up memory seats?</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The manual does not provide specific instructions for setting up memory seats. However, it mentions that for vehicles equipped with Driver Memory Settings, you can use your key fob or the memory switch on the driver’s door trim panel to return the adjustable pedals to saved positions (see page 29). It is implied that the seat memory settings might be linked to the pedal memory settings. For more detailed instructions on setting up memory seats, refer to page 29 of the vehicle's manual.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Who is Michael Jackson?</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Michael Jackson was an American singer, songwriter, and dancer. He was one of the most popular entertainers in the world, often referred to as the "King of Pop". He achieved a Guinness World Record for being the most successful entertainer of all time by number of No. 1 singles, selling millions of records worldwide. His career began in the Jackson 5 in the early 1960s, and he launched a highly successful solo career in the late 1970s with the album Off the Wall. He is best known for hit songs like "Billie Jean", "Thriller", and "Beat It". Unfortunately, he passed away in 2009. His influence on music and dance continues to be felt today.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Who can I adjust my steering wheel column?</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The provided information does not include any settings related to adjusting the steering wheel column. It appears that this specific system primarily focuses on audio, software, and accessibility settings for a vehicle's entertainment system. You should consult your vehicle's user manual or contact the vehicle manufacturer directly to find out how to adjust your steering wheel column.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Who can I adjust my steering column?</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You should adjust your steering column through the controls located on your vehicle's steering wheel or, if available, within the Uconnect system (page 203). If you encounter difficulty adjusting it yourself, consider consulting with a professional mechanic or contacting your vehicle manufacturer for assistance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Can you give me an overview of the features in this vehicle?</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> This vehicle has several key features and indicator lights as follows:
-1. Headlights On Indicator Light - Illuminates when parking lights or headlights are turned on.
-2. Turn Signal Indicator Lights - Flashes when left or right turn signal is activated, and the exterior turn signals will flash accordingly.
-3. Cruise Control SET Indicator Light (Premium Instrument Cluster Display) - Illuminates when the cruise control is set.
-4. Stop/Start Active Indicator Light (if equipped) - Illuminates when the Stop/Start function is in "Autostop" mode.
-5. 4WD AUTO Indicator Light (if equipped) - Alerts the driver that the vehicle is in four-wheel drive auto mode, and the front axle is engaged but power is sent to the rear wheels.
-6. Adaptive Cruise Control (ACC) Ready Indicator Light (if equipped) - Illuminates when the vehicle equipped with ACC has been turned on but not set.
-7. Cruise Control Ready Indicator Light - Illuminates when the cruise control is ready, but not set.
-8. Selec-Speed Control (SSC) Indicator Light (if equipped) - Shows when the SSC feature is turned on and armed.
-9. High Beam Indicator Light - Illuminates to indicate that the high beam headlights are on.
-In addition, this vehicle has a Speedometer which indicates vehicle speed, a Fuel Gauge showing the level of fuel in the fuel tank, a Tachometer indicating engine speed in revolutions per minute (RPM x 1000), and an Instrument Cluster Display with driver interactive features. The hard telltales will illuminate for a bulb check when the ignition is first cycled. It's important to note that driving with a hot engine cooling system could damage the vehicle, so if the temperature gauge reads “H,” pull over and stop the vehicle, idle it with the air conditioner turned off until the pointer drops back into the normal range, and call an authorized dealer for service if the pointer remains on the "H."</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
